--- a/gropin/schema/metadataschema437.xlsx
+++ b/gropin/schema/metadataschema437.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Pseudomonas marginalis in/on Pectin-NH4Cl-MgSO4 (gropin ID: 437 )</t>
+          <t>Gropin secondary growth model for Pseudomonas marginalis in/on Pectin-NH4Cl-MgSO4 (gropin ID: 437 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(4.004,29.97002997003,length.out=21)</t>
+          <t>seq(4.004,29.97002997003,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(6.006,7.99200799200799,length.out=21)</t>
+          <t>seq(6.006,7.99200799200799,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0,4.995004995005,length.out=21)</t>
+          <t>seq(0,4.995004995005,length.out=10)</t>
         </is>
       </c>
     </row>
